--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5133">
   <si>
     <t>translation_group</t>
   </si>
@@ -15370,12 +15370,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 알림</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11 : 44 : 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15762,17 +15756,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54419,18 +54413,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5117</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5118</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54440,10 +54426,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="D2763" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54454,10 +54440,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="D2764" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54468,10 +54454,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="D2765" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54482,10 +54468,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="D2766" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54496,10 +54482,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="D2767" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54510,10 +54496,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="D2768" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54524,10 +54510,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="D2769" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54566,11 +54552,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="D2772" t="s">
-        <v>5134</v>
-      </c>
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5824">
   <si>
     <t>translation_group</t>
   </si>
@@ -10112,7 +10112,7 @@
     <t>Seo 설정</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>검색 엔진에서 웹 사이트를 찾을 때 최대 결과를 얻으려면 필드를 채우십시오.</t>
@@ -16909,6 +16909,598 @@
   </si>
   <si>
     <t>메일 제공 업체</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Microweber에 오신 것을 환영합니다</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Microweber를 사용하여 웹 사이트, 온라인 상점 또는 블로그를 구축하십시오.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>콘텐츠를 만들고 편집하고, 온라인으로 판매하고, 주문 및 고객을 관리합니다.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>없애다</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>이 템플릿을 사용하고 있습니다.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>변경 사항은 현재 페이지에만 적용됩니다.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>여러 템플릿 허용</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>여러 개의 템플릿을 허용하면 새 페이지를 만들 때 다른 템플릿을 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>시스템 이메일 웹 사이트 설정</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>신규 등록, 비밀번호 재설정 및 기타 시스템 기능과 관련된 메시지를 전달합니다.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>이메일 주소에서</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>전의. 귀하의 웹 사이트 이름</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>일반 전자 메일 공급자 설정</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>이메일 제공 업체를 설정하세요.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>일반 이메일 제공자는 웹 사이트와 관련된 모든 메시지를 전달합니다. 시스템 메시지 및 문의 양식 메시지를 포함합니다.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>웹 사이트 로고</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>웹 사이트 로고를 선택하세요.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>웹 사이트 Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>기본 언어 변경 중 ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>캐시 지우기 ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>다국어 모듈 설치</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>사용자는 Mailinator, MailDrop, Guerrilla ... s와 같은 임시 이메일로 등록 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>등록 사용자는 자동으로 귀하로부터 자동 이메일을받을 수 있습니다. 설정을 확인하고 메시지를 게시하십시오.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>새 사용자 등록시 관리자에게 이메일 보내기</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>새 사용자가 등록 될 때 관리자가 이메일을 받도록 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber는 무료 오픈 소스 드래그 앤 드롭 웹 사이트 빌더 및 CMS입니다. MIT 라이선스하에 있으며 Laravel PHP 프레임 워크를 사용합니다.</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>주소로 배송</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>주소에서 픽업</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>전역 설정</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>이메일 통합</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>시스템 이메일 및 SMTP 설정이 없습니다.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>여기에서 시스템 설정을 구성하십시오.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>글로벌 연락처 양식 설정</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>이메일 전송 옵션</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>글로벌 발신자</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>사용자 지정 발신자 설정 사용</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>글로벌 연락처 양식에 사용자 지정 발신자 설정을 사용합니다.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>기본적으로 웹 사이트 시스템 이메일 설정을 사용합니다.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>여기에서 시스템 이메일 설정을 변경할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>글로벌 수신기</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>제출시 연락처 양식 데이터를 글로벌 수신자에게 보냅니다.</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>이메일 주소로</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>혼수 상태로 구분 된 수신자의 이메일 주소입니다.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>PHP SOAP 확장을 활성화하려면 호스팅 공급자에게 문의하십시오.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>집단</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 달전</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>파비콘 제거</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>커스텀</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>제품 V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>타임 라인</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>화이트 라벨 WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>눈에 보이는 평가의 수</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>모듈 템플릿이 변경되었습니다.</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>콘텐츠 버전</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>기본 레이아웃 및 요소</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>화살표 목록</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>체크리스트</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>배경 텍스트</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>텍스트가있는 제목</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>텍스트가있는 아이콘</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>두 개의 텍스트 열</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>아이콘과 제목이있는 두 개의 텍스트 열</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>제목과 텍스트가있는 이미지</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>이미지와 제목이있는 텍스트</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>댓글 활성화</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha 설정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">다음에서 보안 문자 기본 설정을 지정하십시오. </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>현재 문의 양식 설정</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>문의 양식 이름</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>이 문의 양식의 이름은 무엇입니까?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>수신기</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>제출시 연락처 양식 데이터를 사용자 지정 수신자에게 보냅니다.</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>현재 연락처 양식에 대한 사용자 지정 수신자 설정을 사용합니다.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>기본적으로 연락처 양식 전역 설정을 사용합니다.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>여기에서 연락처 양식 전역 설정을 변경할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>사용자에게 자동 응답 메시지</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>사용자에게 자동 응답 메시지 사용</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>사용자가 "구독 후 감사 이메일"을 받도록 허용합니다.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>자동 응답 기능을 사용하면 수신 이메일에 대한 자동 응답을 설정할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>사용자에게 다시 전송되는 자동 응답 이메일</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>자동 응답 사용자 지정 발신자</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>현재 연락처 양식에 사용자 지정 발신자 설정을 사용합니다.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>이메일 주소에서 자동 응답</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>이름에서 자동 응답</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>전자 메일에 자동 응답</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>사용자가 자동 응답 메시지를 받으면 다시 응답하여 이메일에 응답 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>이메일 첨부 파일 자동 응답</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>아직 게시물이 없습니다.</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>지금 바로 첫 번째 게시물을 작성하세요.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>게시물 작성</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>판매하는 제품 설명 작성 방법
+                                                    상점을 성공적으로 만들기 위해 할 수있는 가장 좋은 방법 중 하나는 훌륭한 제품 설명을 작성하는 데 시간을 투자하는 것입니다. 잠재 고객이 구매하도록 유도하는 상세하면서도 간결한 정보를 제공하려고합니다.
+                                                    소비자처럼 생각하세요.
+                                                    소비자로서 여러분이 알고 싶어하는 것이 무엇인지 생각해보고 이러한 기능을 설명에 포함하세요. 옷 : 재료와 핏. 음식 : 재료와 준비 방법. 글 머리 기호는
+                                                   기능을 나열 할 때 친구입니다.
+                                                            각 항목을 5-8 단어로 제한하십시오.</t>
   </si>
 </sst>
 </file>
@@ -17247,7 +17839,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67555,6 +68147,1757 @@
         <v>5629</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5630</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5631</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5632</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5633</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5634</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5635</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5636</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5637</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5638</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5639</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5640</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5641</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5642</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5643</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5644</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5646</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5647</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5648</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5649</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5650</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5652</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5654</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5655</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5656</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5657</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>4993</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5666</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5667</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5668</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5669</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5670</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5671</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5672</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5673</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5675</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5677</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5681</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>823</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4189</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5821</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6113">
   <si>
     <t>translation_group</t>
   </si>
@@ -17501,6 +17501,873 @@
                                                     소비자로서 여러분이 알고 싶어하는 것이 무엇인지 생각해보고 이러한 기능을 설명에 포함하세요. 옷 : 재료와 핏. 음식 : 재료와 준비 방법. 글 머리 기호는
                                                    기능을 나열 할 때 친구입니다.
                                                             각 항목을 5-8 단어로 제한하십시오.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>관리 언어</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>한계</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>코드 편집기</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>블로그</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>타이틀 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>타이틀 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>타이틀 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>타이틀 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>타이틀 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>타이틀 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>타이틀 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>타이틀 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>텍스트 블록</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>텍스트 블록 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>텍스트 블록 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>텍스트 블록 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>텍스트 블록 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>텍스트 블록 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>텍스트 블록 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>텍스트 블록 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>텍스트 블록 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>텍스트 블록 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>텍스트 블록 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>텍스트 블록 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>텍스트 블록 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>텍스트 블록 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>텍스트 블록 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>텍스트 블록 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>특징</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>기능 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>기능 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>기능 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>메뉴 - 스킨-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>메뉴 - 스킨-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>메뉴 - 스킨-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>메뉴 - 스킨-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>메뉴 - 스킨-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>바닥글</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>바닥글 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>바닥글 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>바닥글 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>바닥글 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>점보트론</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>점보트론 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>가격 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>기본 레이아웃</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>여기에 콘텐츠가 없습니다</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>사용자 정의 필드가 저장됩니다.</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>기존 필드</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>아래의 기존 필드에서 선택하십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 새 필드 추가</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>아래 목록에서 새 사용자 정의 필드 추가</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>귀하의 필드</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>추가한 사용자 정의 필드 목록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">세로로 반복 </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>글꼴 모음</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>위에 까는 것</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>혼합 모드</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>컨테이너</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>컨테이너 유형</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>애니메이션</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>스타일 다시 로드</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>패키지 미리보기</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>데모</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>현재의</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>재 주문</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>체계</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>브라우저 리디렉션</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>완성</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>독립형 업데이터</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>이 패키지를 설치하려면 라이센스 키가 필요합니다</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>이 패키지는 프리미엄이며 설치하려면 라이센스 키가 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>라이센스 키가 필요합니다</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>라이선스 활성화됨</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>페이지 새로고침</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>라이선스가 활성화되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>시스템 업데이트</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>시스템 업데이트 확인</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>다시 목록으로</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>카테고리에는 이름이 있어야 합니다.</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>카테고리가 숨겨져 있습니까?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>이것을 YES로 설정하면 이 카테고리가 웹사이트에서 숨겨집니다.</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>언급</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>장바구니가 비어 있습니다.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>검색된 결과</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>선택 필드에서 백분율을 선택하면 제품의 가격 및 제안 가격에서 자동으로 계산됩니다.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>아이유이</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>결제 진행</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>~의</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>결과)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>페이지 제목 - 오른쪽 탐색경로</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>페이지 제목 - 왼쪽 탐색경로</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>이용약관</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>배송 및 반품</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>약 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>약 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>약 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>홈 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>홈 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>템플릿을 변경하려면 템플릿 적용 버튼을 클릭해야 합니다.</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>기준으로 검색</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>에서 날짜</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>날짜부터 주문 설정</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>주문을 날짜로 설정</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>주문 금액</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>최소 금액으로 주문 표시</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>최대 금액으로 주문 표시</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>제품으로 검색...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>제품으로 검색</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>지불 상태</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>전화, 이름, 이메일 등으로 무료 검색...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>이 기준 제출</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>필터 재설정</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>모두 내보내기</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>정렬 선택</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>주문일</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[신규 &gt; 구]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[구 &gt; 신규]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[높음 &gt; 낮음]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[낮음 &gt; 높음]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>다중 언어 모듈의 번역이 데이터베이스에서 발견되었습니다.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>경고! 기본 언어를 변경하면 사이트의 번역이 중단될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>계속하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>경고! 기본 언어를 변경하면 사이트가 손상될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>주문이 아직 완료되지 않았습니다</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>주문이 완료되었습니다</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>만든 시간</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">퀵뷰 </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>언어 값 바꾸기</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>번역 가져오기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터베이스에서 번역을 찾을 수 없습니다. 번역을 가져오시겠습니까? </t>
   </si>
 </sst>
 </file>
@@ -17524,10 +18391,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17538,7 +18402,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17839,7 +18703,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69901,8 +70765,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>745</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>5998</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5821</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -69914,5 +73412,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ko_KR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5937">
   <si>
     <t>translation_group</t>
   </si>
@@ -10115,7 +10115,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>검색 엔진에서 웹 사이트를 찾을 때 최대 결과를 얻으려면 필드를 채우십시오.</t>
+    <t>검색 엔진에서 웹사이트를 찾을 때 최대 결과를 얻으려면 필드를 채우십시오.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -16914,7 +16914,7 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Microweber에 오신 것을 환영합니다</t>
+    <t>마이크로웨버에 오신 것을 환영합니다</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
@@ -16926,18 +16926,21 @@
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>콘텐츠를 만들고 편집하고, 온라인으로 판매하고, 주문 및 고객을 관리합니다.</t>
+    <t>콘텐츠 생성 및 편집, 온라인 판매, 주문 및 클라이언트 관리.</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>없애다</t>
+    <t>제거하다</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
+    <t>버려진 수레</t>
+  </si>
+  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -16959,19 +16962,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>여러 개의 템플릿을 허용하면 새 페이지를 만들 때 다른 템플릿을 사용할 수 있습니다.</t>
+    <t>여러 템플릿을 허용하면 새 페이지를 만들 때 다른 템플릿을 사용할 수 있습니다.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>시스템 이메일 웹 사이트 설정</t>
+    <t>시스템 이메일 웹사이트 설정</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>신규 등록, 비밀번호 재설정 및 기타 시스템 기능과 관련된 메시지를 전달합니다.</t>
+    <t>신규 등록, 암호 재설정 및 기타 시스템 기능과 관련된 메시지를 전달합니다.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -16983,37 +16986,37 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>전의. 귀하의 웹 사이트 이름</t>
+    <t>전. 귀하의 웹사이트 이름</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>일반 전자 메일 공급자 설정</t>
+    <t>일반 이메일 제공업체 설정</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>이메일 제공 업체를 설정하세요.</t>
+    <t>이메일 제공업체를 설정하세요.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>일반 이메일 제공자는 웹 사이트와 관련된 모든 메시지를 전달합니다. 시스템 메시지 및 문의 양식 메시지를 포함합니다.</t>
+    <t>일반 이메일 제공업체는 웹사이트와 관련된 모든 메시지를 전달합니다. 시스템 메시지 및 연락처 양식 메시지를 포함합니다.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>웹 사이트 로고</t>
+    <t>웹사이트 로고</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>웹 사이트 로고를 선택하세요.</t>
+    <t>웹 사이트의 로고를 선택하십시오.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17022,19 +17025,19 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>웹 사이트 Favicon</t>
+    <t>웹사이트 파비콘</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>기본 언어 변경 중 ..</t>
+    <t>기본 언어 변경..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>캐시 지우기 ..</t>
+    <t>캐시 지우기..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17046,31 +17049,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>사용자는 Mailinator, MailDrop, Guerrilla ... s와 같은 임시 이메일로 등록 할 수 있습니다.</t>
+    <t>사용자는 Mailinator, MailDrop, Guerrilla...s와 같은 임시 이메일로 등록할 수 있습니다.</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>등록 사용자는 자동으로 귀하로부터 자동 이메일을받을 수 있습니다. 설정을 확인하고 메시지를 게시하십시오.</t>
+    <t>등록 사용자는 귀하로부터 자동 이메일을 자동으로 받을 수 있습니다. 설정을 확인하고 메시지를 게시하세요.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>새 사용자 등록시 관리자에게 이메일 보내기</t>
+    <t>관리 사용자에게 신규 사용자 등록에 대한 이메일 보내기</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>새 사용자가 등록 될 때 관리자가 이메일을 받도록 하시겠습니까?</t>
+    <t>새 사용자가 등록되면 관리자가 전자 메일을 받도록 하시겠습니까?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber는 무료 오픈 소스 드래그 앤 드롭 웹 사이트 빌더 및 CMS입니다. MIT 라이선스하에 있으며 Laravel PHP 프레임 워크를 사용합니다.</t>
+    <t>Microweber는 무료 오픈 소스 드래그 앤 드롭 웹 사이트 빌더 및 CMS입니다. MIT 라이센스 하에 있으며 Laravel PHP 프레임워크를 사용합니다.</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17103,13 +17106,13 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>시스템 이메일 및 SMTP 설정이 없습니다.</t>
+    <t>시스템 이메일 및 smtp 설정이 없습니다.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>여기에서 시스템 설정을 구성하십시오.</t>
+    <t>여기에서 시스템 설정을 지정하십시오.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17133,19 +17136,19 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>사용자 지정 발신자 설정 사용</t>
+    <t>맞춤 발신자 설정 사용</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>글로벌 연락처 양식에 사용자 지정 발신자 설정을 사용합니다.</t>
+    <t>전역 연락처 양식에 대한 사용자 지정 발신자 설정을 사용합니다.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>기본적으로 웹 사이트 시스템 이메일 설정을 사용합니다.</t>
+    <t>기본적으로 웹사이트 시스템 이메일 설정을 사용합니다.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17163,7 +17166,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>제출시 연락처 양식 데이터를 글로벌 수신자에게 보냅니다.</t>
+    <t>제출 시 연락처 양식 데이터를 전역 수신자에게 보냅니다.</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17175,13 +17178,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>혼수 상태로 구분 된 수신자의 이메일 주소입니다.</t>
+    <t>수신자의 이메일 주소는 쉼표로 구분됩니다.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>PHP SOAP 확장을 활성화하려면 호스팅 공급자에게 문의하십시오.</t>
+    <t>PHP SOAP 확장을 활성화하려면 호스팅 제공업체에 문의하십시오.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17208,7 +17211,10 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>커스텀</t>
+    <t>관습</t>
+  </si>
+  <si>
+    <t>bx슬라이더</t>
   </si>
   <si>
     <t>Schema.org</t>
@@ -17217,13 +17223,13 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>제품 V2</t>
+    <t>제품V2</t>
   </si>
   <si>
     <t>Timeline</t>
   </si>
   <si>
-    <t>타임 라인</t>
+    <t>타임라인</t>
   </si>
   <si>
     <t>White label WHMCS</t>
@@ -17235,7 +17241,7 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>눈에 보이는 평가의 수</t>
+    <t>보이는 추천 수</t>
   </si>
   <si>
     <t>Module template has changed</t>
@@ -17280,13 +17286,13 @@
     <t>Title with Text</t>
   </si>
   <si>
-    <t>텍스트가있는 제목</t>
+    <t>텍스트가 있는 제목</t>
   </si>
   <si>
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>텍스트가있는 아이콘</t>
+    <t>텍스트가 있는 아이콘</t>
   </si>
   <si>
     <t>Two Text Columns</t>
@@ -17298,24 +17304,27 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>아이콘과 제목이있는 두 개의 텍스트 열</t>
+    <t>아이콘과 제목이 있는 두 개의 텍스트 열</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>제목과 텍스트가있는 이미지</t>
+    <t>제목과 텍스트가 있는 이미지</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>이미지와 제목이있는 텍스트</t>
+    <t>이미지와 제목이 있는 텍스트</t>
   </si>
   <si>
     <t>Text with Image</t>
   </si>
   <si>
+    <t>이미지가 있는 텍스트</t>
+  </si>
+  <si>
     <t>Enable comments</t>
   </si>
   <si>
@@ -17325,18 +17334,21 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Captcha 설정</t>
+    <t>보안 문자 설정</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">다음에서 보안 문자 기본 설정을 지정하십시오. </t>
+    <t xml:space="preserve">보안문자 기본 설정을 다음에서 설정하세요. </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>사용자 지정 필드를 사용하여 양식의 필드 추가/편집</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17364,7 +17376,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>제출시 연락처 양식 데이터를 사용자 지정 수신자에게 보냅니다.</t>
+    <t>제출 시 연락처 양식 데이터를 사용자 지정 수신자에게 보냅니다.</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17376,13 +17388,13 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>기본적으로 연락처 양식 전역 설정을 사용합니다.</t>
+    <t>기본적으로 문의 양식 전역 설정을 사용합니다.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>여기에서 연락처 양식 전역 설정을 변경할 수 있습니다.</t>
+    <t>여기에서 문의 양식 전역 설정을 변경할 수 있습니다.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
@@ -17394,7 +17406,7 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>사용자에게 자동 응답 메시지 사용</t>
+    <t>사용자에게 자동 응답 메시지 활성화</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
@@ -17406,10 +17418,13 @@
     <t>Auto respond subject</t>
   </si>
   <si>
+    <t>자동 응답 제목</t>
+  </si>
+  <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>자동 응답 기능을 사용하면 수신 이메일에 대한 자동 응답을 설정할 수 있습니다.</t>
+    <t>자동 응답기를 사용하면 수신 이메일에 대한 자동 회신을 설정할 수 있습니다.</t>
   </si>
   <si>
     <t>Auto respond message</t>
@@ -17418,19 +17433,19 @@
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>사용자에게 다시 전송되는 자동 응답 이메일</t>
+    <t>자동 응답 이메일이 사용자에게 다시 전송됨</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>자동 응답 사용자 지정 발신자</t>
+    <t>자동 응답 맞춤 발신자</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>현재 연락처 양식에 사용자 지정 발신자 설정을 사용합니다.</t>
+    <t>현재 연락처 양식에 대한 사용자 지정 발신자 설정을 사용합니다.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17448,24 +17463,27 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>전자 메일에 자동 응답</t>
+    <t>이메일에 대한 자동 응답 회신</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>사용자가 자동 응답 메시지를 받으면 다시 응답하여 이메일에 응답 할 수 있습니다.</t>
+    <t>사용자가 자동 응답 메시지를 받으면 이메일에 답장을 보낼 수 있습니다.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>이메일 첨부 파일 자동 응답</t>
+    <t>자동 응답 이메일 첨부 파일</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>OG 이미지를 첨부하려면 '미디어 추가'에서 갤러리에 업로드해야 합니다.</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
@@ -17475,13 +17493,13 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>지금 바로 첫 번째 게시물을 작성하세요.</t>
+    <t>지금 바로 첫 게시물을 작성하세요.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>게시물 작성</t>
+    <t>게시물 만들기</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17495,12 +17513,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>판매하는 제품 설명 작성 방법
-                                                    상점을 성공적으로 만들기 위해 할 수있는 가장 좋은 방법 중 하나는 훌륭한 제품 설명을 작성하는 데 시간을 투자하는 것입니다. 잠재 고객이 구매하도록 유도하는 상세하면서도 간결한 정보를 제공하려고합니다.
-                                                    소비자처럼 생각하세요.
-                                                    소비자로서 여러분이 알고 싶어하는 것이 무엇인지 생각해보고 이러한 기능을 설명에 포함하세요. 옷 : 재료와 핏. 음식 : 재료와 준비 방법. 글 머리 기호는
-                                                   기능을 나열 할 때 친구입니다.
-                                                            각 항목을 5-8 단어로 제한하십시오.</t>
+    <t xml:space="preserve">
+                                                    판매하는 제품 설명을 작성하는 방법 매장을 성공적으로 만들기 위해 할 수 있는 최선의 방법 중 하나는 훌륭한 제품 설명을 작성하는 데 시간을 투자하는 것입니다. 잠재 고객이 구매하도록 유도할 상세하면서도 간결한 정보를 제공하려고 합니다.
+                                                    소비자처럼 생각하십시오.
+                                                    소비자로서 알고 싶은 것이 무엇인지 생각한 다음 해당 기능을 설명에 포함하십시오. 옷: 소재와 핏. 식품의 경우: 재료 및 준비 방법.
+                                                   개의 기능을 나열할 때 글머리 기호는 친구입니다. 각 기능을
+                                                            5-8단어로 제한하세요.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17509,340 +17527,271 @@
     <t>관리 언어</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>서브페이지 추가</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>카테고리 삭제됨</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>콘텐츠 삭제됨</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>카테고리 검색</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>콘텐츠 만들기</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>어느</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>ID 설명</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>아이디 오름차순</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>한계</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>삭제하시겠습니까?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>에 제품이 없습니다.</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>돌아가다</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>맞춤 입력란이 저장되었습니다.</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>기존 필드</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>아래의 기존 필드에서 선택하십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 새 필드 추가</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>아래 목록에서 새 사용자 정의 필드 추가</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>귀하의 분야</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>추가된 사용자 정의 필드 목록</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>체계</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>블로그</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>브라우저 리디렉션</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>완성</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>가져오기 내보내기 도구</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>독립형 업데이터</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>미리보기 패키지</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>데모</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>현재의</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>표현하다</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>첫번째 교시</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>클릭 앤 콜렉트</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>비디오 배경</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>다국어 모듈을 활성화하여 여러 언어를 사용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>다국어 모드</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>콘텐츠에 여러 언어를 사용하려면 다국어 모드를 활성화하세요.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>번역을 가져옵니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터베이스에서 번역을 찾을 수 없습니다. 번역을 가져오시겠습니까? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>장바구니가 비어 있습니다.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>코드 편집기</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>블로그</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>타이틀 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>타이틀 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>타이틀 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>타이틀 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>타이틀 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>타이틀 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>타이틀 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>타이틀 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>텍스트 블록</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>텍스트 블록 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>텍스트 블록 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>텍스트 블록 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>텍스트 블록 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>텍스트 블록 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>텍스트 블록 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>텍스트 블록 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>텍스트 블록 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>텍스트 블록 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>텍스트 블록 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>텍스트 블록 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>텍스트 블록 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>텍스트 블록 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>텍스트 블록 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>텍스트 블록 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>특징</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>기능 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>기능 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>기능 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>메뉴 - 스킨-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>메뉴 - 스킨-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>메뉴 - 스킨-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>메뉴 - 스킨-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>메뉴 - 스킨-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>바닥글</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>바닥글 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>바닥글 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>바닥글 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>바닥글 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>점보트론</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>점보트론 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>가격 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>기본 레이아웃</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>여기에 콘텐츠가 없습니다</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>사용자 정의 필드가 저장됩니다.</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>기존 필드</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>아래의 기존 필드에서 선택하십시오.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 새 필드 추가</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>아래 목록에서 새 사용자 정의 필드 추가</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>귀하의 필드</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>추가한 사용자 정의 필드 목록</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>새로운 가져오기</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17854,7 +17803,7 @@
     <t>Font Family</t>
   </si>
   <si>
-    <t>글꼴 모음</t>
+    <t>글꼴 패밀리</t>
   </si>
   <si>
     <t>Overlay</t>
@@ -17890,484 +17839,7 @@
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>스타일 다시 로드</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>패키지 미리보기</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>데모</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>사용</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>현재의</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>재 주문</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>체계</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>브라우저 리디렉션</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>완성</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>독립형 업데이터</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>이 패키지를 설치하려면 라이센스 키가 필요합니다</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>이 패키지는 프리미엄이며 설치하려면 라이센스 키가 있어야 합니다.</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>라이센스 키가 필요합니다</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>라이선스 활성화됨</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>페이지 새로고침</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>라이선스가 활성화되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>시스템 업데이트</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>시스템 업데이트 확인</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>다시 목록으로</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>카테고리에는 이름이 있어야 합니다.</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>카테고리가 숨겨져 있습니까?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>이것을 YES로 설정하면 이 카테고리가 웹사이트에서 숨겨집니다.</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>언급</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>장바구니가 비어 있습니다.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>검색된 결과</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>선택 필드에서 백분율을 선택하면 제품의 가격 및 제안 가격에서 자동으로 계산됩니다.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>아이유이</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>결제 진행</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>~의</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>결과)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>페이지 제목 - 오른쪽 탐색경로</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>페이지 제목 - 왼쪽 탐색경로</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>이용약관</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>배송 및 반품</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>약 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>약 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>약 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>홈 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>홈 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>템플릿을 변경하려면 템플릿 적용 버튼을 클릭해야 합니다.</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>기준으로 검색</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>에서 날짜</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>날짜부터 주문 설정</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>주문을 날짜로 설정</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>주문 금액</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>최소 금액으로 주문 표시</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>최대 금액으로 주문 표시</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>제품으로 검색...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>제품으로 검색</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>지불 상태</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>전화, 이름, 이메일 등으로 무료 검색...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>이 기준 제출</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>필터 재설정</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>모두 내보내기</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>정렬 선택</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>주문일</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[신규 &gt; 구]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[구 &gt; 신규]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[높음 &gt; 낮음]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[낮음 &gt; 높음]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>다중 언어 모듈의 번역이 데이터베이스에서 발견되었습니다.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>경고! 기본 언어를 변경하면 사이트의 번역이 중단될 수 있습니다.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>계속하시겠습니까?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>경고! 기본 언어를 변경하면 사이트가 손상될 수 있습니다.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>주문이 아직 완료되지 않았습니다</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>주문이 완료되었습니다</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>만든 시간</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">퀵뷰 </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>언어 값 바꾸기</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>번역 가져오기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터베이스에서 번역을 찾을 수 없습니다. 번역을 가져오시겠습니까? </t>
+    <t>스타일 새로고침</t>
   </si>
 </sst>
 </file>
@@ -18703,7 +18175,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69093,7 +68565,7 @@
         <v>5638</v>
       </c>
       <c r="D2964" t="s">
-        <v>1399</v>
+        <v>5639</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69107,10 +68579,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5639</v>
+        <v>5640</v>
       </c>
       <c r="D2965" t="s">
-        <v>5640</v>
+        <v>5641</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69124,10 +68596,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5641</v>
+        <v>5642</v>
       </c>
       <c r="D2966" t="s">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69141,10 +68613,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="D2967" t="s">
-        <v>5644</v>
+        <v>5645</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69158,10 +68630,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5645</v>
+        <v>5646</v>
       </c>
       <c r="D2968" t="s">
-        <v>5646</v>
+        <v>5647</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69175,10 +68647,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5647</v>
+        <v>5648</v>
       </c>
       <c r="D2969" t="s">
-        <v>5648</v>
+        <v>5649</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69192,10 +68664,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5649</v>
+        <v>5650</v>
       </c>
       <c r="D2970" t="s">
-        <v>5650</v>
+        <v>5651</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69209,10 +68681,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="D2971" t="s">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69226,10 +68698,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5653</v>
+        <v>5654</v>
       </c>
       <c r="D2972" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69243,10 +68715,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="D2973" t="s">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69260,10 +68732,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="D2974" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69277,10 +68749,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="D2975" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69294,10 +68766,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="D2976" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69311,10 +68783,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5663</v>
+        <v>5664</v>
       </c>
       <c r="D2977" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69328,7 +68800,7 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="D2978" t="s">
         <v>4993</v>
@@ -69345,10 +68817,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="D2979" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69362,10 +68834,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="D2980" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69379,10 +68851,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="D2981" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69396,10 +68868,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="D2982" t="s">
-        <v>5673</v>
+        <v>5674</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69413,10 +68885,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="D2983" t="s">
-        <v>5675</v>
+        <v>5676</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69430,10 +68902,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="D2984" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69447,10 +68919,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="D2985" t="s">
-        <v>5679</v>
+        <v>5680</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69464,10 +68936,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D2986" t="s">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69481,10 +68953,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="D2987" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69498,7 +68970,7 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="D2988" t="s">
         <v>653</v>
@@ -69515,10 +68987,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5685</v>
+        <v>5686</v>
       </c>
       <c r="D2989" t="s">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69532,10 +69004,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5687</v>
+        <v>5688</v>
       </c>
       <c r="D2990" t="s">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69549,10 +69021,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5689</v>
+        <v>5690</v>
       </c>
       <c r="D2991" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69566,10 +69038,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="D2992" t="s">
-        <v>5692</v>
+        <v>5693</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69583,10 +69055,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5693</v>
+        <v>5694</v>
       </c>
       <c r="D2993" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69600,10 +69072,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="D2994" t="s">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69617,10 +69089,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5697</v>
+        <v>5698</v>
       </c>
       <c r="D2995" t="s">
-        <v>5698</v>
+        <v>5699</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69634,10 +69106,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="D2996" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69651,10 +69123,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="D2997" t="s">
-        <v>5702</v>
+        <v>5703</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69668,10 +69140,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="D2998" t="s">
-        <v>5704</v>
+        <v>5705</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69685,10 +69157,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5705</v>
+        <v>5706</v>
       </c>
       <c r="D2999" t="s">
-        <v>5706</v>
+        <v>5707</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69702,10 +69174,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5707</v>
+        <v>5708</v>
       </c>
       <c r="D3000" t="s">
-        <v>5708</v>
+        <v>5709</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69719,10 +69191,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5709</v>
+        <v>5710</v>
       </c>
       <c r="D3001" t="s">
-        <v>5710</v>
+        <v>5711</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69736,10 +69208,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="D3002" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69753,10 +69225,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="D3003" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69770,10 +69242,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="D3004" t="s">
-        <v>5716</v>
+        <v>5717</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69787,10 +69259,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5717</v>
+        <v>5718</v>
       </c>
       <c r="D3005" t="s">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69804,10 +69276,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="D3006" t="s">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69821,10 +69293,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="D3007" t="s">
-        <v>5722</v>
+        <v>5723</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69838,10 +69310,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5723</v>
+        <v>5724</v>
       </c>
       <c r="D3008" t="s">
-        <v>5724</v>
+        <v>5725</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69855,7 +69327,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5725</v>
+        <v>5726</v>
       </c>
       <c r="D3009" t="s">
         <v>3211</v>
@@ -69872,10 +69344,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
       <c r="D3010" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -69889,10 +69361,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="D3011" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69909,7 +69381,7 @@
         <v>1535</v>
       </c>
       <c r="D3012" t="s">
-        <v>1535</v>
+        <v>5731</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69923,10 +69395,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
       <c r="D3013" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -69940,10 +69412,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="D3014" t="s">
-        <v>5732</v>
+        <v>5734</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -69957,10 +69429,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5733</v>
+        <v>5735</v>
       </c>
       <c r="D3015" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -69974,10 +69446,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5735</v>
+        <v>5737</v>
       </c>
       <c r="D3016" t="s">
-        <v>5736</v>
+        <v>5738</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -69991,10 +69463,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="D3017" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70008,10 +69480,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="D3018" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70025,10 +69497,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="D3019" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70042,7 +69514,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
       <c r="D3020" t="s">
         <v>1570</v>
@@ -70059,10 +69531,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5744</v>
+        <v>5746</v>
       </c>
       <c r="D3021" t="s">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70076,10 +69548,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="D3022" t="s">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70093,10 +69565,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5748</v>
+        <v>5750</v>
       </c>
       <c r="D3023" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70110,10 +69582,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="D3024" t="s">
-        <v>5751</v>
+        <v>5753</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70127,10 +69599,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5752</v>
+        <v>5754</v>
       </c>
       <c r="D3025" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70144,10 +69616,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5754</v>
+        <v>5756</v>
       </c>
       <c r="D3026" t="s">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70161,10 +69633,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="D3027" t="s">
-        <v>5757</v>
+        <v>5759</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70178,10 +69650,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="D3028" t="s">
-        <v>5759</v>
+        <v>5761</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70195,10 +69667,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5760</v>
+        <v>5762</v>
       </c>
       <c r="D3029" t="s">
-        <v>5761</v>
+        <v>5763</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70212,10 +69684,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5762</v>
+        <v>5764</v>
       </c>
       <c r="D3030" t="s">
-        <v>5763</v>
+        <v>5765</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70229,10 +69701,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5764</v>
+        <v>5766</v>
       </c>
       <c r="D3031" t="s">
-        <v>1808</v>
+        <v>5767</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70246,10 +69718,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5765</v>
+        <v>5768</v>
       </c>
       <c r="D3032" t="s">
-        <v>5766</v>
+        <v>5769</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70263,10 +69735,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5767</v>
+        <v>5770</v>
       </c>
       <c r="D3033" t="s">
-        <v>5768</v>
+        <v>5771</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70280,10 +69752,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5769</v>
+        <v>5772</v>
       </c>
       <c r="D3034" t="s">
-        <v>5770</v>
+        <v>5773</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70297,10 +69769,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5771</v>
+        <v>5774</v>
       </c>
       <c r="D3035" t="s">
-        <v>4856</v>
+        <v>5775</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70314,10 +69786,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5772</v>
+        <v>5776</v>
       </c>
       <c r="D3036" t="s">
-        <v>5773</v>
+        <v>5777</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70331,10 +69803,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5774</v>
+        <v>5778</v>
       </c>
       <c r="D3037" t="s">
-        <v>5775</v>
+        <v>5779</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70348,10 +69820,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5776</v>
+        <v>5780</v>
       </c>
       <c r="D3038" t="s">
-        <v>5777</v>
+        <v>5781</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70365,10 +69837,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5778</v>
+        <v>5782</v>
       </c>
       <c r="D3039" t="s">
-        <v>5779</v>
+        <v>5783</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70382,10 +69854,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5780</v>
+        <v>5784</v>
       </c>
       <c r="D3040" t="s">
-        <v>5781</v>
+        <v>5785</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70399,10 +69871,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5782</v>
+        <v>5786</v>
       </c>
       <c r="D3041" t="s">
-        <v>5783</v>
+        <v>5787</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70416,10 +69888,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5784</v>
+        <v>5788</v>
       </c>
       <c r="D3042" t="s">
-        <v>5785</v>
+        <v>5789</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70433,10 +69905,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5786</v>
+        <v>5790</v>
       </c>
       <c r="D3043" t="s">
-        <v>5787</v>
+        <v>5791</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70450,10 +69922,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5788</v>
+        <v>5792</v>
       </c>
       <c r="D3044" t="s">
-        <v>5789</v>
+        <v>5793</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70467,10 +69939,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5790</v>
+        <v>5794</v>
       </c>
       <c r="D3045" t="s">
-        <v>5791</v>
+        <v>5795</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70484,10 +69956,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5792</v>
+        <v>5796</v>
       </c>
       <c r="D3046" t="s">
-        <v>5793</v>
+        <v>5797</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70501,10 +69973,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5794</v>
+        <v>5798</v>
       </c>
       <c r="D3047" t="s">
-        <v>1966</v>
+        <v>5799</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70518,10 +69990,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5795</v>
+        <v>5800</v>
       </c>
       <c r="D3048" t="s">
-        <v>5796</v>
+        <v>5801</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70535,7 +70007,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5797</v>
+        <v>5802</v>
       </c>
       <c r="D3049" t="s">
         <v>823</v>
@@ -70552,10 +70024,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5798</v>
+        <v>5803</v>
       </c>
       <c r="D3050" t="s">
-        <v>5799</v>
+        <v>5804</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70569,10 +70041,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5800</v>
+        <v>5805</v>
       </c>
       <c r="D3051" t="s">
-        <v>5801</v>
+        <v>5806</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70586,10 +70058,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5802</v>
+        <v>5807</v>
       </c>
       <c r="D3052" t="s">
-        <v>5803</v>
+        <v>5808</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70603,10 +70075,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5804</v>
+        <v>5809</v>
       </c>
       <c r="D3053" t="s">
-        <v>5805</v>
+        <v>5810</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70620,10 +70092,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5806</v>
+        <v>5811</v>
       </c>
       <c r="D3054" t="s">
-        <v>5807</v>
+        <v>5812</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70637,10 +70109,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5808</v>
+        <v>5813</v>
       </c>
       <c r="D3055" t="s">
-        <v>5809</v>
+        <v>5814</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70654,10 +70126,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5810</v>
+        <v>5815</v>
       </c>
       <c r="D3056" t="s">
-        <v>5811</v>
+        <v>5816</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70671,10 +70143,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5812</v>
+        <v>5817</v>
       </c>
       <c r="D3057" t="s">
-        <v>5813</v>
+        <v>5818</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70688,10 +70160,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5814</v>
+        <v>5819</v>
       </c>
       <c r="D3058" t="s">
-        <v>4189</v>
+        <v>5820</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70705,10 +70177,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5815</v>
+        <v>5821</v>
       </c>
       <c r="D3059" t="s">
-        <v>5816</v>
+        <v>5822</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70722,10 +70194,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5817</v>
+        <v>5823</v>
       </c>
       <c r="D3060" t="s">
-        <v>5818</v>
+        <v>5824</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70739,10 +70211,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5819</v>
+        <v>5825</v>
       </c>
       <c r="D3061" t="s">
-        <v>5820</v>
+        <v>5826</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70753,13 +70225,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5821</v>
+        <v>5827</v>
       </c>
       <c r="C3062" t="s">
-        <v>5822</v>
+        <v>5828</v>
       </c>
       <c r="D3062" t="s">
-        <v>5823</v>
+        <v>5829</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70773,10 +70245,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5824</v>
+        <v>5830</v>
       </c>
       <c r="D3063" t="s">
-        <v>5825</v>
+        <v>5831</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70790,10 +70262,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5826</v>
+        <v>5832</v>
       </c>
       <c r="D3064" t="s">
-        <v>5827</v>
+        <v>4216</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70807,10 +70279,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5828</v>
+        <v>5833</v>
       </c>
       <c r="D3065" t="s">
-        <v>5829</v>
+        <v>5834</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70824,10 +70296,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5830</v>
+        <v>5835</v>
       </c>
       <c r="D3066" t="s">
-        <v>5831</v>
+        <v>5836</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70841,10 +70313,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5832</v>
+        <v>5837</v>
       </c>
       <c r="D3067" t="s">
-        <v>3868</v>
+        <v>5838</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70858,10 +70330,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5833</v>
+        <v>5839</v>
       </c>
       <c r="D3068" t="s">
-        <v>5834</v>
+        <v>5840</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70875,10 +70347,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5835</v>
+        <v>5841</v>
       </c>
       <c r="D3069" t="s">
-        <v>5836</v>
+        <v>5842</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70892,10 +70364,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5837</v>
+        <v>5843</v>
       </c>
       <c r="D3070" t="s">
-        <v>5838</v>
+        <v>2449</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70909,10 +70381,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5839</v>
+        <v>5844</v>
       </c>
       <c r="D3071" t="s">
-        <v>5840</v>
+        <v>5845</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70926,10 +70398,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5841</v>
+        <v>5846</v>
       </c>
       <c r="D3072" t="s">
-        <v>5842</v>
+        <v>5847</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -70943,10 +70415,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5843</v>
+        <v>5848</v>
       </c>
       <c r="D3073" t="s">
-        <v>5844</v>
+        <v>5849</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -70960,10 +70432,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5845</v>
+        <v>5850</v>
       </c>
       <c r="D3074" t="s">
-        <v>5846</v>
+        <v>5851</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -70977,10 +70449,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5847</v>
+        <v>5852</v>
       </c>
       <c r="D3075" t="s">
-        <v>5848</v>
+        <v>5853</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -70994,10 +70466,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5849</v>
+        <v>5854</v>
       </c>
       <c r="D3076" t="s">
-        <v>5850</v>
+        <v>5855</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71011,10 +70483,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5851</v>
+        <v>5856</v>
       </c>
       <c r="D3077" t="s">
-        <v>5852</v>
+        <v>5857</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71028,10 +70500,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5853</v>
+        <v>5858</v>
       </c>
       <c r="D3078" t="s">
-        <v>5854</v>
+        <v>2141</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71045,10 +70517,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5855</v>
+        <v>5859</v>
       </c>
       <c r="D3079" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71062,10 +70534,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="D3080" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71079,10 +70551,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="D3081" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71096,10 +70568,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5861</v>
+        <v>5865</v>
       </c>
       <c r="D3082" t="s">
-        <v>5862</v>
+        <v>5866</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71113,10 +70585,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5863</v>
+        <v>5867</v>
       </c>
       <c r="D3083" t="s">
-        <v>5864</v>
+        <v>5868</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71130,10 +70602,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5865</v>
+        <v>5869</v>
       </c>
       <c r="D3084" t="s">
-        <v>5866</v>
+        <v>5870</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71147,10 +70619,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5867</v>
+        <v>5871</v>
       </c>
       <c r="D3085" t="s">
-        <v>5868</v>
+        <v>5872</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71164,10 +70636,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5869</v>
+        <v>5873</v>
       </c>
       <c r="D3086" t="s">
-        <v>5870</v>
+        <v>1373</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71181,10 +70653,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="D3087" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71198,10 +70670,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="D3088" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71215,10 +70687,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
       <c r="D3089" t="s">
-        <v>5876</v>
+        <v>5879</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71232,10 +70704,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5877</v>
+        <v>5880</v>
       </c>
       <c r="D3090" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71249,10 +70721,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
       <c r="D3091" t="s">
-        <v>5880</v>
+        <v>5883</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71266,10 +70738,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5881</v>
+        <v>5884</v>
       </c>
       <c r="D3092" t="s">
-        <v>5882</v>
+        <v>5885</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71283,10 +70755,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5883</v>
+        <v>5886</v>
       </c>
       <c r="D3093" t="s">
-        <v>5884</v>
+        <v>5887</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71300,10 +70772,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5885</v>
+        <v>5888</v>
       </c>
       <c r="D3094" t="s">
-        <v>5886</v>
+        <v>5889</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71317,10 +70789,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5887</v>
+        <v>5890</v>
       </c>
       <c r="D3095" t="s">
-        <v>5888</v>
+        <v>5891</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71334,10 +70806,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
       <c r="D3096" t="s">
-        <v>5290</v>
+        <v>5893</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71351,10 +70823,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5890</v>
+        <v>5894</v>
       </c>
       <c r="D3097" t="s">
-        <v>1083</v>
+        <v>5895</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71368,10 +70840,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5891</v>
+        <v>5896</v>
       </c>
       <c r="D3098" t="s">
-        <v>2215</v>
+        <v>5897</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71385,10 +70857,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5892</v>
+        <v>5898</v>
       </c>
       <c r="D3099" t="s">
-        <v>5893</v>
+        <v>5899</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71402,10 +70874,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5894</v>
+        <v>5900</v>
       </c>
       <c r="D3100" t="s">
-        <v>5895</v>
+        <v>5901</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71419,10 +70891,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5896</v>
+        <v>5902</v>
       </c>
       <c r="D3101" t="s">
-        <v>5897</v>
+        <v>1513</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71436,10 +70908,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5898</v>
+        <v>5903</v>
       </c>
       <c r="D3102" t="s">
-        <v>5899</v>
+        <v>5904</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71453,10 +70925,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5900</v>
+        <v>5905</v>
       </c>
       <c r="D3103" t="s">
-        <v>5901</v>
+        <v>5906</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71470,10 +70942,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5902</v>
+        <v>5907</v>
       </c>
       <c r="D3104" t="s">
-        <v>5903</v>
+        <v>5908</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71487,10 +70959,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5904</v>
+        <v>5909</v>
       </c>
       <c r="D3105" t="s">
-        <v>5905</v>
+        <v>5910</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71504,10 +70976,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5906</v>
+        <v>5911</v>
       </c>
       <c r="D3106" t="s">
-        <v>5907</v>
+        <v>5912</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71521,10 +70993,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5908</v>
+        <v>5913</v>
       </c>
       <c r="D3107" t="s">
-        <v>5909</v>
+        <v>5914</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71538,10 +71010,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5910</v>
+        <v>5915</v>
       </c>
       <c r="D3108" t="s">
-        <v>5911</v>
+        <v>5916</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71554,11 +71026,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5912</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1292</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71571,11 +71043,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5918</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71589,10 +71061,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5913</v>
+        <v>5919</v>
       </c>
       <c r="D3111" t="s">
-        <v>5914</v>
+        <v>5920</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71606,10 +71078,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5915</v>
+        <v>5921</v>
       </c>
       <c r="D3112" t="s">
-        <v>5916</v>
+        <v>5922</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71623,10 +71095,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5917</v>
+        <v>5923</v>
       </c>
       <c r="D3113" t="s">
-        <v>745</v>
+        <v>5924</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71640,10 +71112,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5918</v>
+        <v>5925</v>
       </c>
       <c r="D3114" t="s">
-        <v>5919</v>
+        <v>5926</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71657,10 +71129,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5920</v>
+        <v>5927</v>
       </c>
       <c r="D3115" t="s">
-        <v>5921</v>
+        <v>5928</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71674,10 +71146,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5922</v>
+        <v>5929</v>
       </c>
       <c r="D3116" t="s">
-        <v>5923</v>
+        <v>5930</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71691,10 +71163,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5924</v>
+        <v>5931</v>
       </c>
       <c r="D3117" t="s">
-        <v>5925</v>
+        <v>5932</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71708,10 +71180,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5926</v>
+        <v>5933</v>
       </c>
       <c r="D3118" t="s">
-        <v>5927</v>
+        <v>5934</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71725,1678 +71197,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5928</v>
+        <v>5935</v>
       </c>
       <c r="D3119" t="s">
-        <v>5929</v>
+        <v>5936</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5930</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5931</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5932</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5933</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5934</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5935</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5936</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5937</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5938</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5939</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5940</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5941</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5942</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5943</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5944</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5945</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5946</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5947</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5948</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5949</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5950</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5951</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5952</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5953</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5954</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5956</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5957</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5958</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5959</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5960</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5966</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5967</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5968</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5969</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5970</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5971</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5972</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5973</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5974</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5975</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5976</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5977</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5978</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5980</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5981</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5982</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>5983</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>5984</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>5985</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2715</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>5998</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5821</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6008</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6008</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6016</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>2288</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6018</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4307</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2232</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
